--- a/regression_excel/ActualRatings_weeklyGRP_Pier.xlsx
+++ b/regression_excel/ActualRatings_weeklyGRP_Pier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierlim/PycharmProjects/IndianTV/regression_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\KE 5108 - CAs\Rita CA\time_series_CA\regression_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D61E1DF-D350-EE4E-AF94-3EE9DB79F9E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{91FF08AC-3136-48C9-B757-888E4DEBA25F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="20565" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="2" r:id="rId1"/>
@@ -8942,14 +8942,14 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>95</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>39249</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>39980</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>100</v>
       </c>
@@ -9010,26 +9010,26 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>106</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>0.80622531638273021</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>107</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>0.64999926077643333</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>108</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>0.64499925021609672</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>109</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>21.656816259176683</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>110</v>
       </c>
@@ -9069,12 +9069,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
         <v>116</v>
@@ -9092,7 +9092,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>112</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>1.2900487930211559E-17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>113</v>
       </c>
@@ -9128,7 +9128,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>114</v>
       </c>
@@ -9142,8 +9142,8 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
         <v>121</v>
@@ -9170,7 +9170,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>115</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>313.11054223748903</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>128</v>
       </c>
@@ -9241,18 +9241,18 @@
       <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>46.846170937351211</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>49.45253612297693</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>50.330443269150699</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>48.088379021409963</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>54.635008809635373</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>52.452274455751024</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>53.21810046822327</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>52.763525772358179</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>52.376583750895719</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>52.416359283552318</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>55.279905749808833</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>56.773545152618674</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>55.790512323374607</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>51.459427923817294</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>54.584587571674597</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>57.595411858132962</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>56.098657915842537</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>48.289201573783863</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>48.86442041779982</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>50.65113315377063</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>45.581508856599243</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>48.94635735396426</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>50.692784907790966</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>50.218125551059117</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>53.146704902773003</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>51.033259194177958</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>51.174620268343602</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>50.954075600409382</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>50.826752055277183</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>50.584720310677142</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>50.035052045095213</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>49.091584889551662</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>54.409218285628775</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>51.849294965250529</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>52.520227909781923</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>53.293276416708501</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>52.906718395779066</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>46.054447953377846</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>50.173691172564418</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>49.224768208310742</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>46.452383410026108</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>45.258214288442858</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>42.529777588085665</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>43.365323193598542</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>43.615474109077851</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>42.257202587064299</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>42.247353336904233</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>44.75973950601005</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>44.632000489033608</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>43.365323193598542</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>44.851669786438769</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>45.244551431191169</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>45.162537115171659</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>42.829587379402298</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>45.51338523129062</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>45.152964621385394</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>44.274045631150322</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>43.090836119522137</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>43.168938954664725</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>42.459598074758588</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>42.140355181672582</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>43.619638076249906</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>41.541263424944404</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>40.12487844766288</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>42.567653893705852</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>45.3019235591116</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>45.860361114003076</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>43.608533785157157</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>39.921824470022784</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>40.991200956376375</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>40.576928291336223</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>36.528740149526151</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>41.745141395202253</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>39.174919011614485</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>40.468060598473208</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>39.823739435546713</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>38.600475761223471</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>39.203982065630406</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>44.291972778846713</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>38.917306634086721</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>82</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>39.750107668990282</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>40.931314278907223</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>40.645622370562393</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>44.671849878779291</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>42.805803656373925</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>39.643165341895362</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>41.965528761110257</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>41.403686965822821</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>40.892795864983668</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>42.020548083915173</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>39.618580047965409</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>43.907926121130835</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F94" s="1">
         <f>AVERAGE(F74:F93)*100</f>
         <v>8.4262446816676722</v>
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E97" s="1" t="s">
         <v>132</v>
       </c>
@@ -11788,24 +11788,24 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>106</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>0.86184974144340032</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>107</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>0.74278497682605593</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>108</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>0.72742885603955176</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>109</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>2.5320834656692321</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>110</v>
       </c>
@@ -11845,12 +11845,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
         <v>116</v>
@@ -11868,7 +11868,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>112</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>4.5493219751773054E-19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>113</v>
       </c>
@@ -11904,7 +11904,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>114</v>
       </c>
@@ -11918,8 +11918,8 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
         <v>121</v>
@@ -11946,7 +11946,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>115</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>55.645525079049435</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>128</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>-0.15115580368025811</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>230</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>4.4224340326204787</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>231</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>-0.12982203039929274</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>232</v>
       </c>
@@ -12091,13 +12091,13 @@
         <v>2.3052113567253678</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>234</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>1</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>-5.1055674917120157</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>2</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>-2.3190367950002866</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>3</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>-3.9383369088561153</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>-6.0002356455108483</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>5</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>0.72655965380057097</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>6</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>-1.2760091889977758</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>7</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>-0.33001766543952726</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>8</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>-0.60442685021860854</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>9</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>-0.8112033605950657</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>10</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>-0.59126231685246466</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>11</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>2.4524496604900534</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>12</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>4.1262545743859036</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>13</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>3.3233872562278393</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>14</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>-0.82753163224347048</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>15</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>2.4777935266998412</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>16</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>5.6687833242442096</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>17</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>5.0925035125503939</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>18</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>-2.5367873184222702</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>19</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>-1.7814029633203106</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>20</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>0.18547528373650124</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>21</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>-4.7039835023488763</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>22</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>-1.1589694938978568</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>23</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>0.76762357101485179</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>24</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>0.47312972536900588</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>25</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>3.5818745881689011</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>26</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>1.6485943906598592</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>27</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>1.970120975911513</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>28</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>1.9297418190632953</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>29</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>1.9825837850170984</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>30</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>-0.63885723670001937</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>31</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>-1.0083599911959382</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>32</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>-1.7716616356534871</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>33</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>3.7261372715096286</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>34</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>1.3463794622173921</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>35</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>2.1974779178347887</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>36</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>3.1506919358473695</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>37</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>2.944299426003937</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>38</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>-3.7278055053112737</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>39</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>0.57160322496130078</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>40</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>-0.19715422820636519</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>41</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>-2.7893735154049963</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>42</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>-3.8033771259022444</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>43</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>-1.8550093753653627</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>44</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>-0.83929825876647612</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>45</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>-0.4089818322011638</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>46</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>-1.5870878431287068</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>47</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>-1.4167715822027702</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>48</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>1.275780097989049</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>49</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>1.3282065920986099</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>50</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>0.24169480774954621</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>51</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>1.9082069116757836</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>52</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>2.4812540675141861</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>53</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>2.5794052625806856</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>54</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>0.42662103789732697</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>55</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>3.2905844008716514</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>56</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>0.43295653093682773</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>57</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>-0.26579694821223399</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
         <v>58</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>-1.2688409487544163</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <v>59</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>-1.0105726025258193</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
         <v>60</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>-1.5397479713459532</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>61</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>-1.6788253533459567</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
         <v>62</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>-1.937694768263043E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>63</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>-1.9175860879021229</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>64</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>-3.1538055540976444</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>65</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>-0.53086459696866939</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>66</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>2.3835705795230879</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>67</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>3.1221736455005669</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>68</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>1.0505118277406496</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>69</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>-1.7157233567971133</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>70</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>-0.46618135935751326</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>71</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>-0.70028851331166209</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>72</v>
       </c>
@@ -12911,18 +12911,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACE7E7A-947A-4005-A9D5-706750D62771}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="136" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>225</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>15.924895157739641</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>6.765081533040826</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>11.362341741974747</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>18.289846248243197</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>1.8951643262200366</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>3.492452210980153</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>0.88620103619086754</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>1.6396090039055227</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>2.2189770938802749</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>1.6144217589824614</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>6.27782706988818</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>10.219559260988722</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>8.4008289910253424</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>2.3042446843706879</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>147</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>6.4220703856102528</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>13.759104569633489</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>12.712289228791384</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>7.5873453383398557</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>5.2473657912474376</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>0.52370805286764299</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>15.061456042984215</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>3.3986393915026869</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>155</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>2.1572235763123606</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>156</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>1.3442541952516562</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>157</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>9.4880916449761372</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>158</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>4.5837984514000771</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>159</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>5.4550532028933887</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>160</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>5.3671429762996334</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>5.526529452372956</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>1.8077177829623841</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>2.8900057238172572</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>5.1937205271637756</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>9.6391180254027624</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>166</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>3.6901955929687014</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>167</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>5.9245313850260031</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>168</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>8.3387760484525888</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>169</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>7.855604446871685</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>11.759288257609839</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>171</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>1.6249661400151321</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>172</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>0.57116201890820451</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>173</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>8.6857992175776992</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>12.21645908625031</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>175</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>6.2872664990340859</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>2.7748764052200192</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>177</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>1.3408342990441766</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>5.4067797097102046</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>4.8234378555229132</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>180</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>4.0482271371446652</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>181</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>4.2254417781682072</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>182</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>0.79673754112970752</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>183</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>6.0233872293101403</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>184</v>
       </c>
@@ -15190,7 +15190,7 @@
         <v>7.7427822540727735</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>185</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>8.0595734534256049</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>186</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>1.4214870624203688</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>187</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>10.167607354099378</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>1.3685584165619153</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>189</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>0.85711467086965976</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>190</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>4.23123133267101</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>3.3592460633023689</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>192</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>5.2187801680879913</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>193</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>5.7377147242649205</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>194</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>6.1764099568507709E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>195</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>6.6572591401687919</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>11.412970574843277</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>197</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>1.7845421154347583</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>7.4324929514255071</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>199</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>9.5835657515621087</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>3.4252793091480478</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>6.193726711220342</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>202</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>1.6267451579233372</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>2.4726420203533692</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>204</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>18.331484741965344</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>205</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>2.824156730757065</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>206</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>5.7415867794147664</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>207</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>0.31058061978655688</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>208</v>
       </c>
@@ -16222,7 +16222,7 @@
         <v>1.9863494736276002</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>209</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>5.9555241727992403</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>210</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>2.9701640317084088</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>211</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>14.058140880179169</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>212</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>2.7194450875426197</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>213</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>0.98728998339354046</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>214</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>3.2368874417263607</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>215</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>3.6344189566686267</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>216</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>10.005551639837053</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>217</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>4.9418819452729617</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>218</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>5.4139575908343716</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>219</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>3.4273582001159619</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>220</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>2.1679759799136193</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>221</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>1.0452590276461922</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>222</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>5.4202086051801119</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>2.2220300135147153</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>224</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>12.303402420040644</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I95" t="s">
         <v>239</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>4.5686084789979802</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
         <v>240</v>
       </c>
